--- a/public/Excel_example/prof/foreign_prof_exchange.xlsx
+++ b/public/Excel_example/prof/foreign_prof_exchange.xlsx
@@ -24,10 +24,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>外籍學者身分（教授、副教授、助理教授或博士後研究員）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>國籍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -44,7 +40,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>外籍學者姓名</t>
+    <t>境外學者姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>境外學者身分（教授、副教授、助理教授或博士後研究員）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -436,22 +436,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
